--- a/xlsx/凡尔赛条约_intext.xlsx
+++ b/xlsx/凡尔赛条约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
   <si>
     <t>凡尔赛条约</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>凡爾賽條約 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_凡尔赛条约</t>
+    <t>凡尔赛条约 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_凡尔赛条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8F%A1%E5%BB%B3</t>
   </si>
   <si>
-    <t>鏡廳</t>
+    <t>镜厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>協約國</t>
+    <t>协约国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%87%86</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>威瑪共和國</t>
+    <t>威玛共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第三共和國</t>
+    <t>法兰西第三共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(1861%E5%B9%B4%E2%80%931946%E5%B9%B4)</t>
   </si>
   <si>
-    <t>意大利王國 (1861年–1946年)</t>
+    <t>意大利王国 (1861年–1946年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬尼亞王國</t>
+    <t>罗马尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>南斯拉夫王國</t>
+    <t>南斯拉夫王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E4%BC%9A_(1919%E5%B9%B4)</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際聯盟會員國列表</t>
+    <t>国际联盟会员国列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organisation_of_the_League_of_Nations</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>國際聯盟託管地</t>
+    <t>国际联盟讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6%E6%88%98%E4%BA%89%E7%BD%AA%E8%B4%A3%E6%9D%A1%E6%AC%BE</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B%E6%83%A1%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>魏瑪共和國惡性通貨膨脹</t>
+    <t>魏玛共和国恶性通货膨胀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hyperinflation_in_the_Weimar_Republic</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E7%9A%84%E8%B5%B7%E5%9B%A0</t>
   </si>
   <si>
-    <t>第二次世界大戰的起因</t>
+    <t>第二次世界大战的起因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%B8%A6%E7%89%87%E5%85%AC%E7%BA%A6</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>奧斯曼帝國的分裂</t>
+    <t>奥斯曼帝国的分裂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conference_of_London_(1920)</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%9C%8B%E6%B0%91%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>土耳其國民運動</t>
+    <t>土耳其国民运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>土耳其獨立戰爭</t>
+    <t>土耳其独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E6%9D%A1%E7%BA%A6</t>
@@ -431,19 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%97%A5%E8%80%B3%E6%9B%BC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>聖日耳曼條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E4%BA%9E%E8%BE%B2%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>特里亞農條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%B4%9B%E6%A2%9D%E7%B4%84_(1920%E5%B9%B4)</t>
   </si>
   <si>
-    <t>拉巴洛條約 (1920年)</t>
+    <t>拉巴洛条约 (1920年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E7%BD%97%E9%A9%AC%E8%BF%9B%E5%86%9B</t>
@@ -473,9 +467,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A8%81%E6%96%AF%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>道威斯計劃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
   </si>
   <si>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E5%85%AB%E4%BA%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>九一八事變</t>
+    <t>九一八事变</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adolf_Hitler%27s_rise_to_power</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次義大利衣索比亞戰爭</t>
+    <t>第二次义大利衣索比亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E8%98%AD%E9%87%8D%E8%BB%8D%E4%BA%8B%E5%8C%96</t>
   </si>
   <si>
-    <t>萊茵蘭重軍事化</t>
+    <t>莱茵兰重军事化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%85%E6%88%98</t>
@@ -527,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E7%94%A2%E5%9C%8B%E9%9A%9B%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>反共產國際協定</t>
+    <t>反共产国际协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E4%B8%83%E4%BA%8B%E5%8F%98</t>
@@ -539,19 +530,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A7%E5%90%88%E4%BD%B5</t>
   </si>
   <si>
-    <t>德奧合併</t>
+    <t>德奥合并</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>慕尼黑協定</t>
+    <t>慕尼黑协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%8F%B0%E5%BE%B7%E5%8D%80%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>蘇台德區問題</t>
+    <t>苏台德区问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1939%E5%B9%B4%E5%BE%B7%E5%9B%BD%E5%AF%B9%E7%AB%8B%E9%99%B6%E5%AE%9B%E7%9A%84%E6%9C%80%E5%90%8E%E9%80%9A%E7%89%92</t>
@@ -569,19 +560,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%85%A5%E4%BE%B5%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>義大利入侵阿爾巴尼亞</t>
+    <t>义大利入侵阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%96%80%E7%BD%95%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>諾門罕戰役</t>
+    <t>诺门罕战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>鋼鐵條約</t>
+    <t>钢铁条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%BE%B7%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E6%9D%A1%E7%BA%A6</t>
@@ -593,25 +584,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>波蘭戰役</t>
+    <t>波兰战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%88%B0</t>
   </si>
   <si>
-    <t>假戰</t>
+    <t>假战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>法國戰役</t>
+    <t>法国战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E7%BE%85%E8%96%A9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>巴巴羅薩行動</t>
+    <t>巴巴罗萨行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
@@ -629,13 +620,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E7%BA%A6%E5%9B%BD</t>
   </si>
   <si>
-    <t>协约国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第一次世界大戰)</t>
+    <t>同盟国 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%BA%A6</t>
@@ -653,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%BF%AA%E5%8D%97%C2%B7%E7%A6%8F%E7%85%A6</t>
   </si>
   <si>
-    <t>費迪南·福煦</t>
+    <t>费迪南·福煦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -665,13 +653,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%85%8B%E5%88%97%E5%AD%9F%E6%A2%AD</t>
   </si>
   <si>
-    <t>喬治·克列孟梭</t>
+    <t>乔治·克列孟梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E5%B0%94</t>
@@ -713,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>保守黨 (英國)</t>
+    <t>保守党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E9%80%8A</t>
@@ -725,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%9B%9B%E9%BB%9E%E5%92%8C%E5%B9%B3%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>十四點和平原則</t>
+    <t>十四点和平原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
@@ -767,9 +752,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BE%85%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>伍德羅·威爾遜</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -827,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E7%A9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>赫爾曼·穆勒</t>
+    <t>赫尔曼·穆勒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Johannes_Bell</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97-%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志-奧地利共和國</t>
+    <t>德意志-奥地利共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -881,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE_(%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F)</t>
   </si>
   <si>
-    <t>薩爾 (國際聯盟)</t>
+    <t>萨尔 (国际联盟)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Treaty_of_Versailles_(1871)</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>上西里西亞</t>
+    <t>上西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9A</t>
@@ -941,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%83%8F%E5%A4%9A%E6%B2%83</t>
   </si>
   <si>
-    <t>賈烏多沃</t>
+    <t>贾乌多沃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E4%BD%A9%E9%81%94%E5%8D%80</t>
   </si>
   <si>
-    <t>克萊佩達區</t>
+    <t>克莱佩达区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%96%AF%E7%93%A6%E6%B2%B3</t>
@@ -977,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94-%E7%83%8F%E9%9A%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>盧安達-烏隆地</t>
+    <t>卢安达-乌隆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%9E%E8%A5%BF%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
@@ -989,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>德屬東非</t>
+    <t>德属东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -1043,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>國防工業</t>
+    <t>国防工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E6%AD%A6%E5%99%A8</t>
@@ -1067,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%84%A1%E7%95%8F%E8%89%A6</t>
   </si>
   <si>
-    <t>前無畏艦</t>
+    <t>前无畏舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BB%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
@@ -1121,19 +1103,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>山東問題</t>
+    <t>山东问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%9B%9B%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五四運動</t>
+    <t>五四运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E5%86%AF%C2%B7%E5%85%B4%E7%99%BB%E5%A0%A1</t>
@@ -1151,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E5%88%BA%E5%9C%A8%E8%83%8C%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
-    <t>刀刺在背傳說</t>
+    <t>刀刺在背传说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD</t>
@@ -1163,15 +1145,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%96%AF%E7%89%B9-%E7%AB%8B%E9%99%B6%E5%A4%AB%E6%96%AF%E5%85%8B%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>布列斯特-立陶夫斯克條約</t>
+    <t>布列斯特-立陶夫斯克条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%85%9A</t>
   </si>
   <si>
@@ -1187,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%B7%B4%E6%96%AF%E6%8F%90%E5%AE%89%C2%B7%E5%93%88%E5%A4%AB%E7%B4%8D</t>
   </si>
   <si>
-    <t>賽巴斯提安·哈夫納</t>
+    <t>赛巴斯提安·哈夫纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%86%9B%E6%80%BB%E5%8F%82%E8%B0%8B%E9%83%A8</t>
@@ -1223,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%86%9B</t>
@@ -1253,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%A4%AA%E5%9F%BA</t>
@@ -1337,43 +1316,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%85%8B%E6%96%AF-%E7%9A%AE%E7%A7%91%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>賽克斯-皮科協定</t>
+    <t>赛克斯-皮科协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1915%E5%B9%B4%E5%80%AB%E6%95%A6%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1915年倫敦條約</t>
+    <t>1915年伦敦条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E6%9C%83_(1919%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎和會 (1919年)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E4%BD%9B%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>色佛爾條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89%E6%A2%9D%E7%B4%84_(1921%E5%B9%B4)</t>
   </si>
   <si>
-    <t>安卡拉條約 (1921年)</t>
+    <t>安卡拉条约 (1921年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%AF%E6%9D%A1%E7%BA%A6</t>
@@ -1385,19 +1352,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%B4%9B%E6%A2%9D%E7%B4%84_(1922%E5%B9%B4)</t>
   </si>
   <si>
-    <t>拉巴洛條約 (1922年)</t>
+    <t>拉巴洛条约 (1922年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1-%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>勃蘭登堡-普魯士</t>
+    <t>勃兰登堡-普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E5%85%AC%E5%9B%BD</t>
@@ -1409,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1%E4%BE%AF%E5%9C%8B</t>
   </si>
   <si>
-    <t>勃蘭登堡侯國</t>
+    <t>勃兰登堡侯国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E4%BC%AF%E5%9B%BD</t>
@@ -1421,79 +1388,79 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E4%BC%90%E5%88%A9%E4%BA%9E%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>威斯特伐利亞和約</t>
+    <t>威斯特伐利亚和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%81%A9%E5%A0%A1%E5%92%8C%E6%AF%94%E4%BD%99%E6%89%98%E5%A4%AB%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>勞恩堡和比余托夫地區</t>
+    <t>劳恩堡和比馀托夫地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%87%91</t>
   </si>
   <si>
-    <t>阿爾金</t>
+    <t>阿尔金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%9C%96%E6%8B%89</t>
   </si>
   <si>
-    <t>托圖拉</t>
+    <t>托图拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>普魯士王國</t>
+    <t>普鲁士王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%B2%99%E6%B3%B0%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>納沙泰爾州</t>
+    <t>纳沙泰尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%BE%97%E5%8B%92%E6%94%AF%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>烏得勒支和約</t>
+    <t>乌得勒支和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>西波美拉尼亞</t>
+    <t>西波美拉尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西里西亞</t>
+    <t>西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BC%97%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>東弗里西亞</t>
+    <t>东弗里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>東普魯士省</t>
+    <t>东普鲁士省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>西普魯士</t>
+    <t>西普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%93%9C%E5%88%86%E6%B3%A2%E5%85%B0</t>
@@ -1511,13 +1478,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>新西里西亞</t>
+    <t>新西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維也納會議</t>
+    <t>维也纳会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%85%B0%E7%99%BB%E5%A0%A1%E7%9C%81</t>
@@ -1535,31 +1502,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE%E7%9C%81</t>
   </si>
   <si>
-    <t>薩克森省</t>
+    <t>萨克森省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E4%BC%90%E5%80%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>威斯伐倫省</t>
+    <t>威斯伐伦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E7%9C%81</t>
   </si>
   <si>
-    <t>萊茵省</t>
+    <t>莱茵省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>普魯士省</t>
+    <t>普鲁士省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%A8%E7%B4%A2%E5%80%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>霍亨索倫省</t>
+    <t>霍亨索伦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8B%92%E8%8B%8F%E7%9B%8A%E6%A0%BC-%E8%8D%B7%E5%B0%94%E6%96%AF%E6%B3%B0%E5%9B%A0%E7%9C%81</t>
@@ -1571,31 +1538,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AB%BE%E5%A8%81%E7%9C%81</t>
   </si>
   <si>
-    <t>漢諾威省</t>
+    <t>汉诺威省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE-%E6%8B%BF%E9%A8%B7</t>
   </si>
   <si>
-    <t>黑森-拿騷</t>
+    <t>黑森-拿骚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%A2%9D%E7%B4%84_%EF%BC%881866%E5%B9%B4%EF%BC%89</t>
   </si>
   <si>
-    <t>布拉格條約 （1866年）</t>
+    <t>布拉格条约 （1866年）</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E8%87%AA%E7%94%B1%E5%B7%9E</t>
   </si>
   <si>
-    <t>普魯士自由州</t>
+    <t>普鲁士自由州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>下西里西亞省</t>
+    <t>下西里西亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%A3%AE%E7%9C%81</t>
@@ -1613,13 +1580,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>神奈川條約</t>
+    <t>神奈川条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E5%92%8C%E8%A6%AA%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日英和親条約</t>
+    <t>ja-日英和亲条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E5%92%8C%E4%BA%B2%E9%80%9A%E5%A5%BD%E6%9D%A1%E7%BA%A6</t>
@@ -1631,19 +1598,19 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E5%92%8C%E8%A6%AA%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日蘭和親条約</t>
+    <t>ja-日兰和亲条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%B1%B3%E8%BF%BD%E5%8A%A0%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日米追加条約</t>
+    <t>ja-日米追加条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E8%BF%BD%E5%8A%A0%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日蘭追加条約</t>
+    <t>ja-日兰追加条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%94%BF%E6%9D%A1%E7%BA%A6</t>
@@ -1655,55 +1622,55 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日蘭修好通商条約</t>
+    <t>ja-日兰修好通商条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>日俄修好通商條約</t>
+    <t>日俄修好通商条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日英修好通商条約</t>
+    <t>ja-日英修好通商条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BB%8F%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日仏修好通商条約</t>
+    <t>ja-日仏修好通商条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%91%E3%83%AA%E7%B4%84%E5%AE%9A</t>
   </si>
   <si>
-    <t>ja-パリ約定</t>
+    <t>ja-パリ约定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>明治時代</t>
+    <t>明治时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E4%BF%AE%E5%A5%BD%E6%A2%9D%E8%A6%8F</t>
   </si>
   <si>
-    <t>中日修好條規</t>
+    <t>中日修好条规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B0%88%E7%B4%84</t>
   </si>
   <si>
-    <t>北京專約</t>
+    <t>北京专约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%A0%81%E5%B3%B6%E5%8D%83%E5%B3%B6%E7%BE%A4%E5%B3%B6%E4%BA%A4%E6%8F%9B%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>庫頁島千島群島交換條約</t>
+    <t>库页岛千岛群岛交换条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%8E%E6%9D%A1%E7%BA%A6</t>
@@ -1727,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%A4%A9%E6%B4%A5%E6%9C%83%E8%AD%B0%E5%B0%88%E6%A2%9D</t>
   </si>
   <si>
-    <t>中日天津會議專條</t>
+    <t>中日天津会议专条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%BA%A6</t>
@@ -1739,7 +1706,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%B1%B3%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日米通商航海条約</t>
+    <t>ja-日米通商航海条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B3%E6%9D%A1%E7%BA%A6</t>
@@ -1751,13 +1718,13 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BC%AF%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日伯修好通商航海条約</t>
+    <t>ja-日伯修好通商航海条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%8D%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>遼南條約</t>
+    <t>辽南条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%8B%94%E8%AF%BA%E7%94%AB-%E5%B1%B1%E5%8E%BF%E5%8D%8F%E8%AE%AE</t>
@@ -1769,7 +1736,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B8%85%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日清通商航海条約</t>
+    <t>ja-日清通商航海条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A3%AE-%E8%A5%BF%E5%8D%8F%E8%AE%AE</t>
@@ -1793,7 +1760,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B8%85%E8%BF%BD%E5%8A%A0%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日清追加通商航海条約</t>
+    <t>ja-日清追加通商航海条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%A9%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
@@ -1823,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E5%B7%B3%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>乙巳條約</t>
+    <t>乙巳条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E4%BC%9A%E8%AE%AE%E4%B8%9C%E4%B8%89%E7%9C%81%E4%BA%8B%E5%AE%9C%E6%9D%A1%E7%BA%A6</t>
@@ -1835,7 +1802,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BB%8F%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日仏協約</t>
+    <t>ja-日仏协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E6%97%A5%E9%9F%A9%E5%8D%8F%E7%BA%A6</t>
@@ -1847,7 +1814,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E9%9C%B2%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日露協約</t>
+    <t>ja-日露协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%85%E5%A3%AB%E5%8D%8F%E8%AE%AE</t>
@@ -1859,13 +1826,13 @@
     <t>https://ja.wikipedia.org/wiki/%E9%AB%98%E5%B9%B3%E3%83%BB%E3%83%AB%E3%83%BC%E3%83%88%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>ja-高平・ルート協定</t>
+    <t>ja-高平・ルート协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E5%B3%B6%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>間島協約</t>
+    <t>间岛协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%A9%E5%90%88%E5%B9%B6%E6%9D%A1%E7%BA%A6</t>
@@ -1877,15 +1844,12 @@
     <t>https://ja.wikipedia.org/wiki/%E8%86%83%E8%82%AD%E7%8D%A3%E4%BF%9D%E8%AD%B7%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-膃肭獣保護条約</t>
+    <t>ja-腽肭獣保护条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%80%E6%9D%A1</t>
   </si>
   <si>
@@ -1895,13 +1859,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%BE%9B-%E7%9F%B3%E4%BA%95%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>藍辛-石井協定</t>
+    <t>蓝辛-石井协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%85%B1%E5%90%8C%E9%98%B2%E6%95%B5%E8%BB%8D%E4%BA%8B%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>中日共同防敵軍事協定</t>
+    <t>中日共同防敌军事协定</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gongota_Agreement_of_1920</t>
@@ -1919,7 +1883,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E6%87%B8%E6%A1%88%E8%A7%A3%E6%B1%BA%E3%81%AB%E9%96%A2%E3%81%99%E3%82%8B%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-山東懸案解決に関する条約</t>
+    <t>ja-山东悬案解决に関する条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E6%B5%B7%E5%86%9B%E6%9D%A1%E7%BA%A6</t>
@@ -1931,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%98%87%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>日蘇基本條約</t>
+    <t>日苏基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%9E%E6%B2%AA%E5%81%9C%E6%88%98%E5%8D%8F%E5%AE%9A</t>
@@ -1943,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%BB%BF%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>日滿議定書</t>
+    <t>日满议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%98%E6%B2%BD%E5%8D%8F%E5%AE%9A</t>
@@ -1955,7 +1919,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%8C%97%E6%BA%80%E9%89%84%E9%81%93%E8%AE%93%E6%B8%A1%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>ja-北満鉄道讓渡協定</t>
+    <t>ja-北満鉄道让渡协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E6%A2%85%E5%8D%8F%E5%AE%9A</t>
@@ -1979,49 +1943,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%98%87%E4%B8%AD%E7%AB%8B%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>日蘇中立條約</t>
+    <t>日苏中立条约</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B3%B0%E6%94%BB%E5%AE%88%E5%90%8C%E7%9B%9F%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日泰攻守同盟条約</t>
+    <t>ja-日泰攻守同盟条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E4%BC%8F%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>降伏文書</t>
+    <t>降伏文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85%E6%9A%A8%E8%B2%BF%E6%98%93%E7%B8%BD%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>關稅暨貿易總協定</t>
+    <t>关税暨贸易总协定</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E3%81%A8%E3%82%A2%E3%83%A1%E3%83%AA%E3%82%AB%E5%90%88%E8%A1%86%E5%9B%BD%E3%81%A8%E3%81%AE%E9%96%93%E3%81%AE%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%9D%A1%E7%B4%84</t>
   </si>
   <si>
-    <t>ja-日本国とアメリカ合衆国との間の安全保障条約</t>
+    <t>ja-日本国とアメリカ合众国との间の安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>舊金山和約</t>
+    <t>旧金山和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>中日和約</t>
+    <t>中日和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%BE%8E%E8%A1%8C%E6%94%BF%E5%8D%8F%E5%AE%9A</t>
@@ -2033,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E6%97%A5%E5%9F%BA%E6%9C%AC%E6%9D%A1%E7%BA%A6</t>
@@ -2051,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%92%8C%E5%B9%B3%E5%8F%8B%E5%A5%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>中日和平友好條約</t>
+    <t>中日和平友好条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%A6%E6%AD%A6%E5%99%A8%E5%85%AC%E7%BA%A6</t>
@@ -2063,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%81%96%E7%B4%8D%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>瓦聖納協定</t>
+    <t>瓦圣纳协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E5%8D%8E%E6%9D%A1%E7%BA%A6</t>
@@ -2081,13 +2045,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%93%84%E6%8B%90%E5%85%92%E7%AB%A5%E6%B0%91%E4%BA%8B%E6%96%B9%E9%9D%A2%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>國際擄拐兒童民事方面公約</t>
+    <t>国际掳拐儿童民事方面公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2111,13 +2075,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4460,7 +4424,7 @@
         <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4486,10 +4450,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4515,10 +4479,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4544,10 +4508,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4573,10 +4537,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4602,10 +4566,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4631,10 +4595,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4660,10 +4624,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4718,10 +4682,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4747,10 +4711,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4776,10 +4740,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4805,10 +4769,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4834,10 +4798,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4863,10 +4827,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4892,10 +4856,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4921,10 +4885,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4950,10 +4914,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4979,10 +4943,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5008,10 +4972,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5037,10 +5001,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5066,10 +5030,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5095,10 +5059,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5124,10 +5088,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5153,10 +5117,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5182,10 +5146,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5211,10 +5175,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5240,10 +5204,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5269,10 +5233,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5298,10 +5262,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5327,10 +5291,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5356,10 +5320,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5385,10 +5349,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5414,10 +5378,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5443,10 +5407,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="G103" t="n">
         <v>18</v>
@@ -5472,10 +5436,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5501,10 +5465,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>9</v>
@@ -5559,10 +5523,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5588,10 +5552,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5617,10 +5581,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>24</v>
@@ -5646,10 +5610,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="G110" t="n">
         <v>18</v>
@@ -5675,10 +5639,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5704,10 +5668,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5733,10 +5697,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5762,10 +5726,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5791,10 +5755,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5820,10 +5784,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5849,10 +5813,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5878,10 +5842,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5907,10 +5871,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -5936,10 +5900,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5965,10 +5929,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5994,10 +5958,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6023,10 +5987,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6052,10 +6016,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6081,10 +6045,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6110,10 +6074,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6139,10 +6103,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6168,10 +6132,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F128" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6197,10 +6161,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6255,10 +6219,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6284,10 +6248,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6313,10 +6277,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6342,10 +6306,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6371,10 +6335,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6400,10 +6364,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>9</v>
@@ -6429,10 +6393,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>7</v>
@@ -6458,10 +6422,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6487,10 +6451,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6516,10 +6480,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6545,10 +6509,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6574,10 +6538,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6603,10 +6567,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6632,10 +6596,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6690,10 +6654,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6719,10 +6683,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6748,10 +6712,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6777,10 +6741,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6806,10 +6770,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6835,10 +6799,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6864,10 +6828,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6893,10 +6857,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6922,10 +6886,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6951,10 +6915,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6980,10 +6944,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7009,10 +6973,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7038,10 +7002,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7067,10 +7031,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7096,10 +7060,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7125,10 +7089,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7154,10 +7118,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7183,10 +7147,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7241,10 +7205,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7270,10 +7234,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7299,10 +7263,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7328,10 +7292,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7357,10 +7321,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7386,10 +7350,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7415,10 +7379,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7444,10 +7408,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7502,10 +7466,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7531,10 +7495,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7560,10 +7524,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -7589,10 +7553,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7618,10 +7582,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7647,10 +7611,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7676,10 +7640,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7705,10 +7669,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7734,10 +7698,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7763,10 +7727,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7792,10 +7756,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7821,10 +7785,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7850,10 +7814,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7908,10 +7872,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>6</v>
@@ -7937,10 +7901,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7966,10 +7930,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7995,10 +7959,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8024,10 +7988,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -8053,10 +8017,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8082,10 +8046,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8111,10 +8075,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8140,10 +8104,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F196" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G196" t="n">
         <v>7</v>
@@ -8169,10 +8133,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8198,10 +8162,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F198" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8227,10 +8191,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8256,10 +8220,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8285,10 +8249,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G201" t="n">
         <v>10</v>
@@ -8314,10 +8278,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -8343,10 +8307,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>30</v>
       </c>
       <c r="G203" t="n">
         <v>7</v>
@@ -8372,10 +8336,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8401,10 +8365,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8430,10 +8394,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8459,10 +8423,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8488,10 +8452,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -8517,10 +8481,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8546,10 +8510,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8575,10 +8539,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G211" t="n">
         <v>6</v>
@@ -8604,10 +8568,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8633,10 +8597,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G213" t="n">
         <v>5</v>
@@ -8662,10 +8626,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8691,10 +8655,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8720,10 +8684,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8778,10 +8742,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8807,10 +8771,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F219" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G219" t="n">
         <v>7</v>
@@ -8836,10 +8800,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8865,10 +8829,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8894,10 +8858,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8923,10 +8887,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G223" t="n">
         <v>4</v>
@@ -8952,10 +8916,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8981,10 +8945,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9010,10 +8974,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9039,10 +9003,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9068,10 +9032,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9097,10 +9061,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9126,10 +9090,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9155,10 +9119,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9184,10 +9148,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9213,10 +9177,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>199</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9242,10 +9206,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9271,10 +9235,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9300,10 +9264,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F236" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G236" t="n">
         <v>5</v>
@@ -9329,10 +9293,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9358,10 +9322,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
         <v>5</v>
@@ -9390,7 +9354,7 @@
         <v>137</v>
       </c>
       <c r="F239" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9445,10 +9409,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F241" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9474,10 +9438,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>122</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9503,10 +9467,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F243" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9532,10 +9496,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9561,10 +9525,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9619,10 +9583,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9677,10 +9641,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G249" t="n">
         <v>8</v>
@@ -9706,10 +9670,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9735,10 +9699,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9764,10 +9728,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9793,10 +9757,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9822,10 +9786,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9851,10 +9815,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9880,10 +9844,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G256" t="n">
         <v>10</v>
@@ -9909,10 +9873,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9938,10 +9902,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9967,10 +9931,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9996,10 +9960,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10025,10 +9989,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10054,10 +10018,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10083,10 +10047,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G263" t="n">
         <v>5</v>
@@ -10112,10 +10076,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10141,10 +10105,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10170,10 +10134,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10199,10 +10163,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10228,10 +10192,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10257,10 +10221,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10286,10 +10250,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10315,10 +10279,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -10344,10 +10308,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10373,10 +10337,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10402,10 +10366,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10431,10 +10395,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10460,10 +10424,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10489,10 +10453,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10518,10 +10482,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10547,10 +10511,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10576,10 +10540,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10605,10 +10569,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10634,10 +10598,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10663,10 +10627,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10692,10 +10656,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F284" t="s">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
         <v>16</v>
@@ -10721,10 +10685,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F285" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10750,10 +10714,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F286" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10779,10 +10743,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F287" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10808,10 +10772,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F288" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10837,10 +10801,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F289" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10866,10 +10830,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F290" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10895,10 +10859,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10924,10 +10888,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10953,10 +10917,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F293" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10982,10 +10946,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F294" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11011,10 +10975,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F295" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11040,10 +11004,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11069,10 +11033,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11098,10 +11062,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11127,10 +11091,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11156,10 +11120,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11185,10 +11149,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11214,10 +11178,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11243,10 +11207,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11272,10 +11236,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11301,10 +11265,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11330,10 +11294,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11359,10 +11323,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11388,10 +11352,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11417,10 +11381,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11446,10 +11410,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11475,10 +11439,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11504,10 +11468,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11533,10 +11497,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11562,10 +11526,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11591,10 +11555,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11620,10 +11584,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11649,10 +11613,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11678,10 +11642,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11707,10 +11671,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11736,10 +11700,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11765,10 +11729,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11794,10 +11758,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11823,10 +11787,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11852,10 +11816,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11881,10 +11845,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11910,10 +11874,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11939,10 +11903,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11968,10 +11932,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11997,10 +11961,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12026,10 +11990,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F330" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12055,10 +12019,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F331" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12084,10 +12048,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F332" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12113,10 +12077,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F333" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12142,10 +12106,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F334" t="s">
-        <v>440</v>
+        <v>199</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12171,10 +12135,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F335" t="s">
-        <v>622</v>
+        <v>136</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12200,10 +12164,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F336" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12229,10 +12193,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F337" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12258,10 +12222,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F338" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12287,10 +12251,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12316,10 +12280,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12345,10 +12309,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12374,10 +12338,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F342" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12403,10 +12367,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F343" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12432,10 +12396,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F344" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12461,10 +12425,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F345" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12490,10 +12454,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F346" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12519,10 +12483,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F347" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12548,10 +12512,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F348" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12577,10 +12541,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F349" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12606,10 +12570,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F350" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12635,10 +12599,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F351" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12664,10 +12628,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F352" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12693,10 +12657,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F353" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12722,10 +12686,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F354" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12751,10 +12715,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F355" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12780,10 +12744,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F356" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12809,10 +12773,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F357" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -12838,10 +12802,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F358" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12867,10 +12831,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F359" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12896,10 +12860,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F360" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12925,10 +12889,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F361" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12954,10 +12918,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F362" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12983,10 +12947,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F363" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13012,10 +12976,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F364" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13041,10 +13005,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F365" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13070,10 +13034,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F366" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13099,10 +13063,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F367" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13128,10 +13092,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F368" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13157,10 +13121,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F369" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13186,10 +13150,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F370" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13215,10 +13179,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F371" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13244,10 +13208,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F372" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -13273,10 +13237,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F373" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13302,10 +13266,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F374" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13331,10 +13295,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="F375" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13360,10 +13324,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F376" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13389,10 +13353,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="F377" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>

--- a/xlsx/凡尔赛条约_intext.xlsx
+++ b/xlsx/凡尔赛条约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="773">
   <si>
     <t>凡尔赛条约</t>
   </si>
@@ -29,7 +29,7 @@
     <t>凡爾賽條約 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_凡尔赛条约</t>
+    <t>体育运动_体育运动_纳粹德国_凡尔赛条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -1334,550 +1334,766 @@
     <t>巴尔干</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/1915%E5%B9%B4%E5%80%AB%E6%95%A6%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>1915年倫敦條約</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Damascus_Protocol</t>
+  </si>
+  <si>
+    <t>en-Damascus Protocol</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%85%8B%E6%96%AF-%E7%9A%AE%E7%A7%91%E5%8D%94%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>賽克斯-皮科協定</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Bucharest_(1916)</t>
+  </si>
+  <si>
+    <t>en-Treaty of Bucharest (1916)</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Accord_franco-arm%C3%A9nien_de_1916</t>
+  </si>
+  <si>
+    <t>fr-Accord franco-arménien de 1916</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_of_Saint-Jean-de-Maurienne</t>
+  </si>
+  <si>
+    <t>en-Agreement of Saint-Jean-de-Maurienne</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E7%A6%8F%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>贝尔福宣言</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Brest-Litovsk_(Ukraine%E2%80%93Central_Powers)</t>
+  </si>
+  <si>
+    <t>en-Treaty of Brest-Litovsk (Ukraine–Central Powers)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8A%A0%E5%8B%92%E6%96%AF%E7%89%B9%E6%A2%9D%E7%B4%84_(1918%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>布加勒斯特條約 (1918年)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Poti</t>
+  </si>
+  <si>
+    <t>en-Treaty of Poti</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Batum</t>
+  </si>
+  <si>
+    <t>en-Treaty of Batum</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Trait%C3%A9_de_Berlin_(27_ao%C3%BBt_1918)</t>
+  </si>
+  <si>
+    <t>fr-Traité de Berlin (27 août 1918)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E8%BE%B9%E5%81%9C%E6%88%98%E5%8D%8F%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>康边停战协定</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Brno_(1920)</t>
+  </si>
+  <si>
+    <t>en-Treaty of Brno (1920)</t>
+  </si>
+  <si>
+    <t>https://pl.wikipedia.org/wiki/Protok%C3%B3%C5%82_besarabski</t>
+  </si>
+  <si>
+    <t>pl-Protokół besarabski</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/German-Polish_Accord_on_East_Silesia</t>
+  </si>
+  <si>
+    <t>en-German-Polish Accord on East Silesia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_between_the_Allied_and_Associated_Powers_with_Regard_to_the_Contribution_to_the_Cost_of_Liberation_of_the_Territories_of_the_Former_Austro-Hungarian_Monarchy</t>
+  </si>
+  <si>
+    <t>en-Agreement between the Allied and Associated Powers with Regard to the Contribution to the Cost of Liberation of the Territories of the Former Austro-Hungarian Monarchy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_Between_the_Allied_and_Associated_Powers_with_Regard_to_the_Italian_Reparation_Payments</t>
+  </si>
+  <si>
+    <t>en-Agreement Between the Allied and Associated Powers with Regard to the Italian Reparation Payments</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E5%9B%BE%E5%92%8C%E7%BA%A6_(%E4%BF%84%E5%9B%BD-%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E6%9D%A1%E7%BA%A6)</t>
+  </si>
+  <si>
+    <t>塔尔图和约 (俄国-爱沙尼亚条约)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Warsaw_(1920)</t>
+  </si>
+  <si>
+    <t>en-Treaty of Warsaw (1920)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%BF%84-%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%92%8C%E5%B9%B3%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>蘇俄-立陶宛和平條約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E-%E8%98%87%E4%BF%84%E5%92%8C%E5%B9%B3%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>拉脫維亞-蘇俄和平條約</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Suwa%C5%82ki_Agreement</t>
+  </si>
+  <si>
+    <t>en-Suwałki Agreement</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%88%BE%E5%9C%96%E5%92%8C%E7%B4%84_(%E4%BF%84%E5%9C%8B-%E8%8A%AC%E8%98%AD%E6%A2%9D%E7%B4%84)</t>
+  </si>
+  <si>
+    <t>塔爾圖和約 (俄國-芬蘭條約)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Alexandropol</t>
+  </si>
+  <si>
+    <t>en-Treaty of Alexandropol</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cilicia_Peace_Treaty</t>
+  </si>
+  <si>
+    <t>en-Cilicia Peace Treaty</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Treaty_of_Moscow_(1921)</t>
+  </si>
+  <si>
+    <t>en-Treaty of Moscow (1921)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0%E5%92%8C%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>里加和约</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_Regarding_the_Restoration_of_the_State_of_Peace_between_Germany_and_China_(1921)</t>
+  </si>
+  <si>
+    <t>en-Agreement Regarding the Restoration of the State of Peace between Germany and China (1921)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93Austrian_Peace_Treaty_(1921)</t>
+  </si>
+  <si>
+    <t>en-U.S.–Austrian Peace Treaty (1921)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93German_Peace_Treaty_(1921)</t>
+  </si>
+  <si>
+    <t>en-U.S.–German Peace Treaty (1921)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93Hungarian_Peace_Treaty_(1921)</t>
+  </si>
+  <si>
+    <t>en-U.S.–Hungarian Peace Treaty (1921)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%AF%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>卡尔斯条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89%E6%A2%9D%E7%B4%84_(1921%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>安卡拉條約 (1921年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%B4%9B%E6%9D%A1%E7%BA%A6_(1922%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>拉巴洛条约 (1922年)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_Between_Great_Britain_and_Denmark_Relating_to_the_Suppression_of_the_Capitulations_in_Egypt</t>
+  </si>
+  <si>
+    <t>en-Agreement Between Great Britain and Denmark Relating to the Suppression of the Capitulations in Egypt</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_Between_Great_Britain_and_Greece_Relating_to_the_Suppression_of_the_Capitulations_in_Egypt_(1920)</t>
+  </si>
+  <si>
+    <t>en-Agreement Between Great Britain and Greece Relating to the Suppression of the Capitulations in Egypt (1920)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_Between_Great_Britain_and_Norway_Relating_to_the_Suppression_of_the_Capitulations_in_Egypt</t>
+  </si>
+  <si>
+    <t>en-Agreement Between Great Britain and Norway Relating to the Suppression of the Capitulations in Egypt</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_Between_Great_Britain_and_Sweden_Relating_to_the_Suppression_of_the_Capitulations_in_Egypt_(1921)</t>
+  </si>
+  <si>
+    <t>en-Agreement Between Great Britain and Sweden Relating to the Suppression of the Capitulations in Egypt (1921)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agreement_between_Great_Britain_and_Portugal_Relating_to_the_Suppression_of_the_Capitulations_in_Egypt</t>
+  </si>
+  <si>
+    <t>en-Agreement between Great Britain and Portugal Relating to the Suppression of the Capitulations in Egypt</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Montreux_Convention_Regarding_the_Regime_of_the_Straits</t>
+  </si>
+  <si>
+    <t>en-Montreux Convention Regarding the Regime of the Straits</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Montreux_Convention_Regarding_the_Abolition_of_the_Capitulations_in_Egypt</t>
+  </si>
+  <si>
+    <t>en-Montreux Convention Regarding the Abolition of the Capitulations in Egypt</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%88%86%E8%A3%82</t>
+  </si>
+  <si>
+    <t>鄂圖曼帝國的分裂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>普魯士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1-%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>勃蘭登堡-普魯士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E5%85%AC%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>普鲁士公国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1%E4%BE%AF%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>勃蘭登堡侯國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E4%BC%AF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>马克伯国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E4%BC%90%E5%88%A9%E4%BA%9E%E5%92%8C%E7%B4%84</t>
+  </si>
+  <si>
+    <t>威斯特伐利亞和約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%81%A9%E5%A0%A1%E5%92%8C%E6%AF%94%E4%BD%99%E6%89%98%E5%A4%AB%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>勞恩堡和比余托夫地區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>德國殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%87%91</t>
+  </si>
+  <si>
+    <t>阿爾金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%9C%96%E6%8B%89</t>
+  </si>
+  <si>
+    <t>托圖拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>普魯士王國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%B2%99%E6%B3%B0%E7%88%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>納沙泰爾州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%BE%97%E5%8B%92%E6%94%AF%E5%92%8C%E7%B4%84</t>
+  </si>
+  <si>
+    <t>烏得勒支和約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>西波美拉尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>西里西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BC%97%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>東弗里西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
+  </si>
+  <si>
+    <t>東普魯士省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>西普魯士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%93%9C%E5%88%86%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>第一次瓜分波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%93%9C%E5%88%86%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>第二次瓜分波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>新西里西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>維也納會議</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%85%B0%E7%99%BB%E5%A0%A1%E7%9C%81</t>
+  </si>
+  <si>
+    <t>勃兰登堡省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9A%E7%9C%81_(%E6%99%AE%E9%B2%81%E5%A3%AB)</t>
+  </si>
+  <si>
+    <t>波美拉尼亚省 (普鲁士)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE%E7%9C%81</t>
+  </si>
+  <si>
+    <t>薩克森省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E4%BC%90%E5%80%AB%E7%9C%81</t>
+  </si>
+  <si>
+    <t>威斯伐倫省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E7%9C%81</t>
+  </si>
+  <si>
+    <t>萊茵省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
+  </si>
+  <si>
+    <t>普魯士省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%A8%E7%B4%A2%E5%80%AB%E7%9C%81</t>
+  </si>
+  <si>
+    <t>霍亨索倫省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8B%92%E8%8B%8F%E7%9B%8A%E6%A0%BC-%E8%8D%B7%E5%B0%94%E6%96%AF%E6%B3%B0%E5%9B%A0%E7%9C%81</t>
+  </si>
+  <si>
+    <t>石勒苏益格-荷尔斯泰因省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AB%BE%E5%A8%81%E7%9C%81</t>
+  </si>
+  <si>
+    <t>漢諾威省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE-%E6%8B%BF%E9%A8%B7</t>
+  </si>
+  <si>
+    <t>黑森-拿騷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%A2%9D%E7%B4%84_%EF%BC%881866%E5%B9%B4%EF%BC%89</t>
+  </si>
+  <si>
+    <t>布拉格條約 （1866年）</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E8%87%AA%E7%94%B1%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>普魯士自由州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
+  </si>
+  <si>
+    <t>下西里西亞省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>凡爾賽條約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%A3%AE%E7%9C%81</t>
+  </si>
+  <si>
+    <t>波森省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%95%E6%9C%AB</t>
+  </si>
+  <si>
+    <t>幕末</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>神奈川條約</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E5%92%8C%E8%A6%AA%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日英和親条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E5%92%8C%E4%BA%B2%E9%80%9A%E5%A5%BD%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>日俄和亲通好条约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E5%92%8C%E8%A6%AA%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日蘭和親条約</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%B1%B3%E8%BF%BD%E5%8A%A0%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日米追加条約</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E8%BF%BD%E5%8A%A0%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日蘭追加条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%94%BF%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>安政条约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日蘭修好通商条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>日俄修好通商條約</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日英修好通商条約</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BB%8F%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日仏修好通商条約</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E3%83%91%E3%83%AA%E7%B4%84%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>ja-パリ約定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E6%99%82%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>明治時代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E4%BF%AE%E5%A5%BD%E6%A2%9D%E8%A6%8F</t>
+  </si>
+  <si>
+    <t>中日修好條規</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B0%88%E7%B4%84</t>
+  </si>
+  <si>
+    <t>北京專約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%A0%81%E5%B3%B6%E5%8D%83%E5%B3%B6%E7%BE%A4%E5%B3%B6%E4%BA%A4%E6%8F%9B%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>庫頁島千島群島交換條約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%8E%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>江华条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E7%89%A9%E6%B5%A6%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>济物浦条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%9F%8E%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>汉城条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%A4%A9%E6%B4%A5%E6%9C%83%E8%AD%B0%E5%B0%88%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>中日天津會議專條</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>日英通商航海条约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%B1%B3%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日米通商航海条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B3%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>马关条约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BC%AF%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日伯修好通商航海条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%8D%97%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>遼南條約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%8B%94%E8%AF%BA%E7%94%AB-%E5%B1%B1%E5%8E%BF%E5%8D%8F%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>罗拔诺甫-山县协议</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B8%85%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日清通商航海条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A3%AE-%E8%A5%BF%E5%8D%8F%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>罗森-西协议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E4%B8%91%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>辛丑条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%97%A5%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>英日同盟</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B8%85%E8%BF%BD%E5%8A%A0%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日清追加通商航海条約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%A9%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>日韩议定书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%97%A5%E9%9F%A9%E5%8D%8F%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>第一次日韩协约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AC%A1%E8%8C%85%E6%96%AF%E5%92%8C%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>朴次茅斯和约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%82%E5%A4%AA%E9%83%8E-%E5%A1%94%E5%A4%AB%E8%84%B1%E5%AF%86%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>桂太郎-塔夫脱密约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E5%B7%B3%E6%A2%9D%E7%B4%84</t>
+  </si>
+  <si>
+    <t>乙巳條約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E4%BC%9A%E8%AE%AE%E4%B8%9C%E4%B8%89%E7%9C%81%E4%BA%8B%E5%AE%9C%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>中日会议东三省事宜条约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BB%8F%E5%8D%94%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日仏協約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E6%97%A5%E9%9F%A9%E5%8D%8F%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>第三次日韩协约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E9%9C%B2%E5%8D%94%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-日露協約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%85%E5%A3%AB%E5%8D%8F%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>绅士协议</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E9%AB%98%E5%B9%B3%E3%83%BB%E3%83%AB%E3%83%BC%E3%83%88%E5%8D%94%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>ja-高平・ルート協定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%93%E5%B3%B6%E5%8D%94%E7%B4%84</t>
+  </si>
+  <si>
+    <t>間島協約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%A9%E5%90%88%E5%B9%B6%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>日韩合并条约</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E8%86%83%E8%82%AD%E7%8D%A3%E4%BF%9D%E8%AD%B7%E6%9D%A1%E7%B4%84</t>
+  </si>
+  <si>
+    <t>ja-膃肭獣保護条約</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
     <t>第一次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%85%8B%E6%96%AF-%E7%9A%AE%E7%A7%91%E5%8D%94%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>賽克斯-皮科協定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1915%E5%B9%B4%E5%80%AB%E6%95%A6%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>1915年倫敦條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E6%9C%83_(1919%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>巴黎和會 (1919年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>凡爾賽條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E4%BD%9B%E7%88%BE%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>色佛爾條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89%E6%A2%9D%E7%B4%84_(1921%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>安卡拉條約 (1921年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%AF%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>卡尔斯条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%B4%9B%E6%A2%9D%E7%B4%84_(1922%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>拉巴洛條約 (1922年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>普魯士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1-%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>勃蘭登堡-普魯士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E5%85%AC%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>普鲁士公国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1%E4%BE%AF%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>勃蘭登堡侯國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E4%BC%AF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>马克伯国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E4%BC%90%E5%88%A9%E4%BA%9E%E5%92%8C%E7%B4%84</t>
-  </si>
-  <si>
-    <t>威斯特伐利亞和約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%81%A9%E5%A0%A1%E5%92%8C%E6%AF%94%E4%BD%99%E6%89%98%E5%A4%AB%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>勞恩堡和比余托夫地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>德國殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%87%91</t>
-  </si>
-  <si>
-    <t>阿爾金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%9C%96%E6%8B%89</t>
-  </si>
-  <si>
-    <t>托圖拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>普魯士王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%B2%99%E6%B3%B0%E7%88%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>納沙泰爾州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%BE%97%E5%8B%92%E6%94%AF%E5%92%8C%E7%B4%84</t>
-  </si>
-  <si>
-    <t>烏得勒支和約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>西波美拉尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>西里西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BC%97%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>東弗里西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
-  </si>
-  <si>
-    <t>東普魯士省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>西普魯士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%93%9C%E5%88%86%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>第一次瓜分波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%93%9C%E5%88%86%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>第二次瓜分波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>新西里西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>維也納會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%85%B0%E7%99%BB%E5%A0%A1%E7%9C%81</t>
-  </si>
-  <si>
-    <t>勃兰登堡省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9A%E7%9C%81_(%E6%99%AE%E9%B2%81%E5%A3%AB)</t>
-  </si>
-  <si>
-    <t>波美拉尼亚省 (普鲁士)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE%E7%9C%81</t>
-  </si>
-  <si>
-    <t>薩克森省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E4%BC%90%E5%80%AB%E7%9C%81</t>
-  </si>
-  <si>
-    <t>威斯伐倫省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E7%9C%81</t>
-  </si>
-  <si>
-    <t>萊茵省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
-  </si>
-  <si>
-    <t>普魯士省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%A8%E7%B4%A2%E5%80%AB%E7%9C%81</t>
-  </si>
-  <si>
-    <t>霍亨索倫省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8B%92%E8%8B%8F%E7%9B%8A%E6%A0%BC-%E8%8D%B7%E5%B0%94%E6%96%AF%E6%B3%B0%E5%9B%A0%E7%9C%81</t>
-  </si>
-  <si>
-    <t>石勒苏益格-荷尔斯泰因省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AB%BE%E5%A8%81%E7%9C%81</t>
-  </si>
-  <si>
-    <t>漢諾威省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE-%E6%8B%BF%E9%A8%B7</t>
-  </si>
-  <si>
-    <t>黑森-拿騷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%A2%9D%E7%B4%84_%EF%BC%881866%E5%B9%B4%EF%BC%89</t>
-  </si>
-  <si>
-    <t>布拉格條約 （1866年）</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E8%87%AA%E7%94%B1%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>普魯士自由州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
-  </si>
-  <si>
-    <t>下西里西亞省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%A3%AE%E7%9C%81</t>
-  </si>
-  <si>
-    <t>波森省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%95%E6%9C%AB</t>
-  </si>
-  <si>
-    <t>幕末</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>神奈川條約</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E5%92%8C%E8%A6%AA%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日英和親条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E5%92%8C%E4%BA%B2%E9%80%9A%E5%A5%BD%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>日俄和亲通好条约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E5%92%8C%E8%A6%AA%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日蘭和親条約</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%B1%B3%E8%BF%BD%E5%8A%A0%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日米追加条約</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E8%BF%BD%E5%8A%A0%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日蘭追加条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%94%BF%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>安政条约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%98%AD%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日蘭修好通商条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>日俄修好通商條約</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日英修好通商条約</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BB%8F%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日仏修好通商条約</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E3%83%91%E3%83%AA%E7%B4%84%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>ja-パリ約定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E6%99%82%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>明治時代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E4%BF%AE%E5%A5%BD%E6%A2%9D%E8%A6%8F</t>
-  </si>
-  <si>
-    <t>中日修好條規</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B0%88%E7%B4%84</t>
-  </si>
-  <si>
-    <t>北京專約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%A0%81%E5%B3%B6%E5%8D%83%E5%B3%B6%E7%BE%A4%E5%B3%B6%E4%BA%A4%E6%8F%9B%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>庫頁島千島群島交換條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%8E%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>江华条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E7%89%A9%E6%B5%A6%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>济物浦条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%9F%8E%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>汉城条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%A4%A9%E6%B4%A5%E6%9C%83%E8%AD%B0%E5%B0%88%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>中日天津會議專條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%8B%B1%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>日英通商航海条约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%B1%B3%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日米通商航海条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B3%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>马关条约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BC%AF%E4%BF%AE%E5%A5%BD%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日伯修好通商航海条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%8D%97%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>遼南條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%8B%94%E8%AF%BA%E7%94%AB-%E5%B1%B1%E5%8E%BF%E5%8D%8F%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>罗拔诺甫-山县协议</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B8%85%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日清通商航海条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A3%AE-%E8%A5%BF%E5%8D%8F%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>罗森-西协议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E4%B8%91%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>辛丑条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%97%A5%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>英日同盟</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%B8%85%E8%BF%BD%E5%8A%A0%E9%80%9A%E5%95%86%E8%88%AA%E6%B5%B7%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日清追加通商航海条約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%A9%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>日韩议定书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%97%A5%E9%9F%A9%E5%8D%8F%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>第一次日韩协约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AC%A1%E8%8C%85%E6%96%AF%E5%92%8C%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>朴次茅斯和约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%82%E5%A4%AA%E9%83%8E-%E5%A1%94%E5%A4%AB%E8%84%B1%E5%AF%86%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>桂太郎-塔夫脱密约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E5%B7%B3%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>乙巳條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E4%BC%9A%E8%AE%AE%E4%B8%9C%E4%B8%89%E7%9C%81%E4%BA%8B%E5%AE%9C%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>中日会议东三省事宜条约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E4%BB%8F%E5%8D%94%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日仏協約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E6%97%A5%E9%9F%A9%E5%8D%8F%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>第三次日韩协约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E9%9C%B2%E5%8D%94%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-日露協約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%85%E5%A3%AB%E5%8D%8F%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>绅士协议</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E9%AB%98%E5%B9%B3%E3%83%BB%E3%83%AB%E3%83%BC%E3%83%88%E5%8D%94%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>ja-高平・ルート協定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%93%E5%B3%B6%E5%8D%94%E7%B4%84</t>
-  </si>
-  <si>
-    <t>間島協約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%A9%E5%90%88%E5%B9%B6%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>日韩合并条约</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E8%86%83%E8%82%AD%E7%8D%A3%E4%BF%9D%E8%AD%B7%E6%9D%A1%E7%B4%84</t>
-  </si>
-  <si>
-    <t>ja-膃肭獣保護条約</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
@@ -2466,7 +2682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2997,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3071,7 +3287,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -3361,7 +3577,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3535,7 +3751,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -3564,7 +3780,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -3680,7 +3896,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -3796,7 +4012,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -5420,7 +5636,7 @@
         <v>202</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -8059,7 +8275,7 @@
         <v>368</v>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8494,7 +8710,7 @@
         <v>394</v>
       </c>
       <c r="G208" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9219,7 +9435,7 @@
         <v>440</v>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9300,13 +9516,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="G236" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9329,10 +9545,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9358,13 +9574,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G238" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9387,13 +9603,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="F239" t="s">
-        <v>138</v>
+        <v>452</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9416,10 +9632,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>117</v>
+        <v>453</v>
       </c>
       <c r="F240" t="s">
-        <v>118</v>
+        <v>454</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9445,13 +9661,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>139</v>
+        <v>381</v>
       </c>
       <c r="F241" t="s">
-        <v>140</v>
+        <v>382</v>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9474,10 +9690,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9503,10 +9719,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>142</v>
+        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9532,10 +9748,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9561,10 +9777,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9590,13 +9806,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>133</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>134</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9619,10 +9835,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9648,13 +9864,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F248" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9677,13 +9893,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>117</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>118</v>
       </c>
       <c r="G249" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9706,13 +9922,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>139</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9735,10 +9951,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9764,10 +9980,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>121</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>122</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9793,13 +10009,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9822,10 +10038,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9851,13 +10067,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>134</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9886,7 +10102,7 @@
         <v>472</v>
       </c>
       <c r="G256" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10089,7 +10305,7 @@
         <v>486</v>
       </c>
       <c r="G263" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10112,10 +10328,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>141</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>142</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10141,13 +10357,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10170,13 +10386,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10199,10 +10415,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10228,10 +10444,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10257,10 +10473,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10286,10 +10502,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10315,13 +10531,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10344,13 +10560,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10373,10 +10589,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10402,10 +10618,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10431,10 +10647,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10460,10 +10676,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10489,10 +10705,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10518,10 +10734,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10547,10 +10763,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10576,10 +10792,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10605,10 +10821,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10634,10 +10850,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10663,10 +10879,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10692,13 +10908,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="F284" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="G284" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10727,7 +10943,7 @@
         <v>528</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -10814,7 +11030,7 @@
         <v>534</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10901,7 +11117,7 @@
         <v>540</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11104,7 +11320,7 @@
         <v>554</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11162,7 +11378,7 @@
         <v>558</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11191,7 +11407,7 @@
         <v>560</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11336,7 +11552,7 @@
         <v>570</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11365,7 +11581,7 @@
         <v>572</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11713,7 +11929,7 @@
         <v>596</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11742,7 +11958,7 @@
         <v>598</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12026,10 +12242,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F330" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12055,10 +12271,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F331" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12084,10 +12300,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F332" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12113,10 +12329,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="F333" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12142,10 +12358,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>439</v>
+        <v>625</v>
       </c>
       <c r="F334" t="s">
-        <v>440</v>
+        <v>626</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12171,10 +12387,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F335" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12200,10 +12416,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F336" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12229,10 +12445,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="F337" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12258,10 +12474,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F338" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12287,10 +12503,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12316,10 +12532,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12345,10 +12561,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12374,10 +12590,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="F342" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12403,10 +12619,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="F343" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12432,10 +12648,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="F344" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12461,10 +12677,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="F345" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12490,10 +12706,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="F346" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12519,10 +12735,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="F347" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12548,10 +12764,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="F348" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12577,10 +12793,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="F349" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12606,10 +12822,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="F350" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12635,10 +12851,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="F351" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12664,10 +12880,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>169</v>
+        <v>661</v>
       </c>
       <c r="F352" t="s">
-        <v>170</v>
+        <v>662</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12693,10 +12909,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="F353" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12722,10 +12938,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12751,10 +12967,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12780,10 +12996,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="F356" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12809,13 +13025,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -12838,10 +13054,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="F358" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12867,10 +13083,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="F359" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12896,10 +13112,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="F360" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12925,10 +13141,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="F361" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12954,10 +13170,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="F362" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12983,10 +13199,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="F363" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13012,10 +13228,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="F364" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13041,10 +13257,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F365" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13070,10 +13286,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F366" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13099,10 +13315,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F367" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13128,10 +13344,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F368" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13157,10 +13373,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13186,10 +13402,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13215,10 +13431,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13244,13 +13460,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F372" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G372" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13273,10 +13489,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="F373" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13302,10 +13518,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="F374" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13331,10 +13547,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="F375" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13360,10 +13576,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F376" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13389,10 +13605,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F377" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13401,6 +13617,1021 @@
         <v>4</v>
       </c>
       <c r="I377" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>377</v>
+      </c>
+      <c r="E378" t="s">
+        <v>705</v>
+      </c>
+      <c r="F378" t="s">
+        <v>706</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H378" t="s">
+        <v>4</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>378</v>
+      </c>
+      <c r="E379" t="s">
+        <v>707</v>
+      </c>
+      <c r="F379" t="s">
+        <v>708</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1</v>
+      </c>
+      <c r="H379" t="s">
+        <v>4</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>379</v>
+      </c>
+      <c r="E380" t="s">
+        <v>709</v>
+      </c>
+      <c r="F380" t="s">
+        <v>710</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1</v>
+      </c>
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>380</v>
+      </c>
+      <c r="E381" t="s">
+        <v>711</v>
+      </c>
+      <c r="F381" t="s">
+        <v>712</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1</v>
+      </c>
+      <c r="H381" t="s">
+        <v>4</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>381</v>
+      </c>
+      <c r="E382" t="s">
+        <v>713</v>
+      </c>
+      <c r="F382" t="s">
+        <v>714</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1</v>
+      </c>
+      <c r="H382" t="s">
+        <v>4</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>382</v>
+      </c>
+      <c r="E383" t="s">
+        <v>715</v>
+      </c>
+      <c r="F383" t="s">
+        <v>716</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1</v>
+      </c>
+      <c r="H383" t="s">
+        <v>4</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>383</v>
+      </c>
+      <c r="E384" t="s">
+        <v>717</v>
+      </c>
+      <c r="F384" t="s">
+        <v>718</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
+      <c r="H384" t="s">
+        <v>4</v>
+      </c>
+      <c r="I384" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>384</v>
+      </c>
+      <c r="E385" t="s">
+        <v>719</v>
+      </c>
+      <c r="F385" t="s">
+        <v>720</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
+      <c r="H385" t="s">
+        <v>4</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>385</v>
+      </c>
+      <c r="E386" t="s">
+        <v>721</v>
+      </c>
+      <c r="F386" t="s">
+        <v>722</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1</v>
+      </c>
+      <c r="H386" t="s">
+        <v>4</v>
+      </c>
+      <c r="I386" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>386</v>
+      </c>
+      <c r="E387" t="s">
+        <v>169</v>
+      </c>
+      <c r="F387" t="s">
+        <v>170</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1</v>
+      </c>
+      <c r="H387" t="s">
+        <v>4</v>
+      </c>
+      <c r="I387" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>387</v>
+      </c>
+      <c r="E388" t="s">
+        <v>723</v>
+      </c>
+      <c r="F388" t="s">
+        <v>724</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1</v>
+      </c>
+      <c r="H388" t="s">
+        <v>4</v>
+      </c>
+      <c r="I388" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389" t="n">
+        <v>388</v>
+      </c>
+      <c r="E389" t="s">
+        <v>725</v>
+      </c>
+      <c r="F389" t="s">
+        <v>726</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1</v>
+      </c>
+      <c r="H389" t="s">
+        <v>4</v>
+      </c>
+      <c r="I389" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1</v>
+      </c>
+      <c r="D390" t="n">
+        <v>389</v>
+      </c>
+      <c r="E390" t="s">
+        <v>727</v>
+      </c>
+      <c r="F390" t="s">
+        <v>728</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1</v>
+      </c>
+      <c r="H390" t="s">
+        <v>4</v>
+      </c>
+      <c r="I390" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1</v>
+      </c>
+      <c r="D391" t="n">
+        <v>390</v>
+      </c>
+      <c r="E391" t="s">
+        <v>729</v>
+      </c>
+      <c r="F391" t="s">
+        <v>730</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1</v>
+      </c>
+      <c r="H391" t="s">
+        <v>4</v>
+      </c>
+      <c r="I391" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>391</v>
+      </c>
+      <c r="E392" t="s">
+        <v>731</v>
+      </c>
+      <c r="F392" t="s">
+        <v>732</v>
+      </c>
+      <c r="G392" t="n">
+        <v>2</v>
+      </c>
+      <c r="H392" t="s">
+        <v>4</v>
+      </c>
+      <c r="I392" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1</v>
+      </c>
+      <c r="D393" t="n">
+        <v>392</v>
+      </c>
+      <c r="E393" t="s">
+        <v>733</v>
+      </c>
+      <c r="F393" t="s">
+        <v>734</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1</v>
+      </c>
+      <c r="H393" t="s">
+        <v>4</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1</v>
+      </c>
+      <c r="D394" t="n">
+        <v>393</v>
+      </c>
+      <c r="E394" t="s">
+        <v>735</v>
+      </c>
+      <c r="F394" t="s">
+        <v>736</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1</v>
+      </c>
+      <c r="H394" t="s">
+        <v>4</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>394</v>
+      </c>
+      <c r="E395" t="s">
+        <v>737</v>
+      </c>
+      <c r="F395" t="s">
+        <v>738</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1</v>
+      </c>
+      <c r="H395" t="s">
+        <v>4</v>
+      </c>
+      <c r="I395" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>395</v>
+      </c>
+      <c r="E396" t="s">
+        <v>739</v>
+      </c>
+      <c r="F396" t="s">
+        <v>740</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1</v>
+      </c>
+      <c r="H396" t="s">
+        <v>4</v>
+      </c>
+      <c r="I396" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>396</v>
+      </c>
+      <c r="E397" t="s">
+        <v>741</v>
+      </c>
+      <c r="F397" t="s">
+        <v>742</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1</v>
+      </c>
+      <c r="H397" t="s">
+        <v>4</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1</v>
+      </c>
+      <c r="D398" t="n">
+        <v>397</v>
+      </c>
+      <c r="E398" t="s">
+        <v>743</v>
+      </c>
+      <c r="F398" t="s">
+        <v>744</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
+      <c r="H398" t="s">
+        <v>4</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1</v>
+      </c>
+      <c r="D399" t="n">
+        <v>398</v>
+      </c>
+      <c r="E399" t="s">
+        <v>745</v>
+      </c>
+      <c r="F399" t="s">
+        <v>746</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1</v>
+      </c>
+      <c r="H399" t="s">
+        <v>4</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1</v>
+      </c>
+      <c r="D400" t="n">
+        <v>399</v>
+      </c>
+      <c r="E400" t="s">
+        <v>747</v>
+      </c>
+      <c r="F400" t="s">
+        <v>748</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1</v>
+      </c>
+      <c r="H400" t="s">
+        <v>4</v>
+      </c>
+      <c r="I400" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1</v>
+      </c>
+      <c r="D401" t="n">
+        <v>400</v>
+      </c>
+      <c r="E401" t="s">
+        <v>749</v>
+      </c>
+      <c r="F401" t="s">
+        <v>750</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1</v>
+      </c>
+      <c r="H401" t="s">
+        <v>4</v>
+      </c>
+      <c r="I401" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1</v>
+      </c>
+      <c r="D402" t="n">
+        <v>401</v>
+      </c>
+      <c r="E402" t="s">
+        <v>751</v>
+      </c>
+      <c r="F402" t="s">
+        <v>752</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1</v>
+      </c>
+      <c r="H402" t="s">
+        <v>4</v>
+      </c>
+      <c r="I402" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1</v>
+      </c>
+      <c r="D403" t="n">
+        <v>402</v>
+      </c>
+      <c r="E403" t="s">
+        <v>753</v>
+      </c>
+      <c r="F403" t="s">
+        <v>754</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1</v>
+      </c>
+      <c r="H403" t="s">
+        <v>4</v>
+      </c>
+      <c r="I403" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1</v>
+      </c>
+      <c r="D404" t="n">
+        <v>403</v>
+      </c>
+      <c r="E404" t="s">
+        <v>755</v>
+      </c>
+      <c r="F404" t="s">
+        <v>756</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1</v>
+      </c>
+      <c r="H404" t="s">
+        <v>4</v>
+      </c>
+      <c r="I404" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1</v>
+      </c>
+      <c r="D405" t="n">
+        <v>404</v>
+      </c>
+      <c r="E405" t="s">
+        <v>757</v>
+      </c>
+      <c r="F405" t="s">
+        <v>758</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1</v>
+      </c>
+      <c r="H405" t="s">
+        <v>4</v>
+      </c>
+      <c r="I405" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>0</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1</v>
+      </c>
+      <c r="D406" t="n">
+        <v>405</v>
+      </c>
+      <c r="E406" t="s">
+        <v>759</v>
+      </c>
+      <c r="F406" t="s">
+        <v>760</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1</v>
+      </c>
+      <c r="H406" t="s">
+        <v>4</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1</v>
+      </c>
+      <c r="D407" t="n">
+        <v>406</v>
+      </c>
+      <c r="E407" t="s">
+        <v>761</v>
+      </c>
+      <c r="F407" t="s">
+        <v>762</v>
+      </c>
+      <c r="G407" t="n">
+        <v>3</v>
+      </c>
+      <c r="H407" t="s">
+        <v>4</v>
+      </c>
+      <c r="I407" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1</v>
+      </c>
+      <c r="D408" t="n">
+        <v>407</v>
+      </c>
+      <c r="E408" t="s">
+        <v>763</v>
+      </c>
+      <c r="F408" t="s">
+        <v>764</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1</v>
+      </c>
+      <c r="H408" t="s">
+        <v>4</v>
+      </c>
+      <c r="I408" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1</v>
+      </c>
+      <c r="D409" t="n">
+        <v>408</v>
+      </c>
+      <c r="E409" t="s">
+        <v>765</v>
+      </c>
+      <c r="F409" t="s">
+        <v>766</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1</v>
+      </c>
+      <c r="H409" t="s">
+        <v>4</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>0</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1</v>
+      </c>
+      <c r="D410" t="n">
+        <v>409</v>
+      </c>
+      <c r="E410" t="s">
+        <v>767</v>
+      </c>
+      <c r="F410" t="s">
+        <v>768</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1</v>
+      </c>
+      <c r="H410" t="s">
+        <v>4</v>
+      </c>
+      <c r="I410" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1</v>
+      </c>
+      <c r="D411" t="n">
+        <v>410</v>
+      </c>
+      <c r="E411" t="s">
+        <v>769</v>
+      </c>
+      <c r="F411" t="s">
+        <v>770</v>
+      </c>
+      <c r="G411" t="n">
+        <v>1</v>
+      </c>
+      <c r="H411" t="s">
+        <v>4</v>
+      </c>
+      <c r="I411" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1</v>
+      </c>
+      <c r="D412" t="n">
+        <v>411</v>
+      </c>
+      <c r="E412" t="s">
+        <v>771</v>
+      </c>
+      <c r="F412" t="s">
+        <v>772</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="s">
+        <v>4</v>
+      </c>
+      <c r="I412" t="n">
         <v>3</v>
       </c>
     </row>
